--- a/list_format.xlsx
+++ b/list_format.xlsx
@@ -8,15 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rQui\python\b-flyer-plan-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327E2A21-3C93-43F8-ABD5-DA1443E84AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92740916-9DAC-4A65-8EE6-FCA4210D7691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="661" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List" sheetId="79" r:id="rId1"/>
-    <sheet name="ValidationLists" sheetId="83" state="veryHidden" r:id="rId2"/>
-    <sheet name="ValidationPairs" sheetId="84" state="veryHidden" r:id="rId3"/>
+    <sheet name="マクロ有効化" sheetId="86" r:id="rId1"/>
+    <sheet name="List" sheetId="79" r:id="rId2"/>
+    <sheet name="ValidationLists" sheetId="83" state="veryHidden" r:id="rId3"/>
+    <sheet name="ValidationPairs" sheetId="84" state="veryHidden" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="PRINT_PRICE">[1]_prices!$A$2:$B$5</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="243">
   <si>
     <t>※印刷単価は、枚数により変動します・・・・・・！</t>
     <rPh sb="1" eb="3">
@@ -743,6 +750,341 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>このファイルを使う前に（マクロを有効にしてください）</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">このファイルは、店舗を選択して編集できる行を制限するために </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>マクロ（VBA）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を使用しています。</t>
+    </r>
+  </si>
+  <si>
+    <t>マクロが無効／ブロックのままだと正常に動作しません。</t>
+  </si>
+  <si>
+    <t>1. まず「編集を有効にする」</t>
+  </si>
+  <si>
+    <t>画面上部に黄色いバーが出ている場合は、</t>
+  </si>
+  <si>
+    <r>
+      <t>［編集を有効にする］</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> をクリックしてください。</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 次に「マクロ（コンテンツ）を有効にする」</t>
+  </si>
+  <si>
+    <t>同じバー、または「セキュリティの警告」が出ている場合は、</t>
+  </si>
+  <si>
+    <r>
+      <t>［コンテンツの有効化］（または［マクロを有効にする］）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> をクリックしてください。</t>
+    </r>
+  </si>
+  <si>
+    <t>3. 「セキュリティ リスク：マクロの実行がブロックされました」と出る場合（重要）</t>
+  </si>
+  <si>
+    <t>画面上部に</t>
+  </si>
+  <si>
+    <t>「セキュリティ リスク</t>
+  </si>
+  <si>
+    <t>このファイルのソースが信頼できないため、Microsoft によりマクロの実行がブロックされました」</t>
+  </si>
+  <si>
+    <r>
+      <t>と表示され、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>［コンテンツの有効化］が出ない／押せない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>場合は、次のどちらかで解除してください。</t>
+    </r>
+  </si>
+  <si>
+    <t>方法A：ファイルの「ブロック解除」（おすすめ）</t>
+  </si>
+  <si>
+    <t>1. Excelを閉じる</t>
+  </si>
+  <si>
+    <r>
+      <t>2. ファイル（例：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>list_format.xlsm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">）を右クリック → </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>［プロパティ］</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. 下部の </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>［セキュリティ］</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> にある </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>［許可する（ブロック解除）］</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> にチェック</t>
+    </r>
+  </si>
+  <si>
+    <t>4. ［適用］→［OK］</t>
+  </si>
+  <si>
+    <t>5. もう一度ファイルを開く</t>
+  </si>
+  <si>
+    <t>※「許可する」が表示されない場合は、方法Bへ。</t>
+  </si>
+  <si>
+    <t>方法B：信頼できる場所に移動して開く（社内運用向け）</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Excel：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>［ファイル］→［オプション］→［セキュリティ センター］→［セキュリティ センターの設定］</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. ［信頼できる場所］</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を開き、保存先フォルダを追加</t>
+    </r>
+  </si>
+  <si>
+    <t>3. このファイルをそのフォルダに移動して開く</t>
+  </si>
+  <si>
+    <t>4. 正しく有効になったかの確認</t>
+  </si>
+  <si>
+    <t>マクロが有効になっている場合、ブックを開くと</t>
+  </si>
+  <si>
+    <r>
+      <t>店舗選択画面（フォーム）が表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>されます</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>選択した店舗の行だけ編集可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>になります（それ以外は編集できません）</t>
+    </r>
+  </si>
+  <si>
+    <t>フォームが出ない／編集できない場合は、マクロが無効またはブロック状態の可能性があります。</t>
+  </si>
+  <si>
+    <t>困ったとき</t>
+  </si>
+  <si>
+    <t>「編集を有効にする」「コンテンツの有効化」が押せない／表示されない場合は、</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">上の </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“3. ブロック解除”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> を先にお試しください。</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -755,7 +1097,7 @@
     <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,6 +1248,39 @@
       <name val="明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1591,7 +1966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1918,6 +2293,9 @@
     <xf numFmtId="180" fontId="19" fillId="0" borderId="26" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="38" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="15" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1930,6 +2308,15 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="38" fontId="15" fillId="7" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="7" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="38" fontId="15" fillId="6" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1937,15 +2324,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="15" fillId="6" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="7" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="7" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="15" fillId="7" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1969,8 +2347,23 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="38" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -2014,6 +2407,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="マクロ有効化"/>
+      <sheetName val="List"/>
+      <sheetName val="ValidationLists"/>
+      <sheetName val="ValidationPairs"/>
+      <sheetName val="_prices"/>
+      <sheetName val="_dv_lists"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>B全</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>B2</v>
+          </cell>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>B3</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>B4</v>
+          </cell>
+          <cell r="B5">
+            <v>1.6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2336,18 +2785,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB0B492-08DE-4605-811E-9D6BB4259A96}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:A70"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="135"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21">
+      <c r="A1" s="134" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="135" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="136" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21">
+      <c r="A8" s="134" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="135" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="136" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="21">
+      <c r="A15" s="134" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="135" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="136" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="21">
+      <c r="A22" s="134" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="135" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="136" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="136" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="135" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="16.5">
+      <c r="A31" s="137" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="138"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="138" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="138"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="138" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="138"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="138" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="138"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="139" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="138"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="138" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="135" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="16.5">
+      <c r="A45" s="137" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="138"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="138" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="138"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="139" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="138"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="138" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="21">
+      <c r="A55" s="134" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="135" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="138"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="139" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="138"/>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="139" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="135" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="21">
+      <c r="A67" s="134" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="135" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="135" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BZ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="7" ySplit="9" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O8" sqref="O8"/>
       <selection pane="topRight" activeCell="O8" sqref="O8"/>
       <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2494,30 +3156,30 @@
       <c r="BZ1" s="6"/>
     </row>
     <row r="2" spans="1:78" ht="33.6" customHeight="1">
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
@@ -2581,102 +3243,102 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="116">
+      <c r="H3" s="117">
         <v>1</v>
       </c>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116">
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117">
         <v>2</v>
       </c>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116">
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117">
         <v>3</v>
       </c>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116">
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117">
         <v>4</v>
       </c>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116">
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117">
         <v>5</v>
       </c>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116">
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117">
         <v>6</v>
       </c>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116">
+      <c r="AC3" s="117"/>
+      <c r="AD3" s="117"/>
+      <c r="AE3" s="117"/>
+      <c r="AF3" s="117">
         <v>7</v>
       </c>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116">
+      <c r="AG3" s="117"/>
+      <c r="AH3" s="117"/>
+      <c r="AI3" s="117"/>
+      <c r="AJ3" s="117">
         <v>8</v>
       </c>
-      <c r="AK3" s="116"/>
-      <c r="AL3" s="116"/>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116">
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="117"/>
+      <c r="AM3" s="117"/>
+      <c r="AN3" s="117">
         <v>9</v>
       </c>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="116"/>
-      <c r="AQ3" s="116"/>
-      <c r="AR3" s="116">
+      <c r="AO3" s="117"/>
+      <c r="AP3" s="117"/>
+      <c r="AQ3" s="117"/>
+      <c r="AR3" s="117">
         <v>10</v>
       </c>
-      <c r="AS3" s="116"/>
-      <c r="AT3" s="116"/>
-      <c r="AU3" s="116"/>
-      <c r="AV3" s="116">
+      <c r="AS3" s="117"/>
+      <c r="AT3" s="117"/>
+      <c r="AU3" s="117"/>
+      <c r="AV3" s="117">
         <v>11</v>
       </c>
-      <c r="AW3" s="116"/>
-      <c r="AX3" s="116"/>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="116">
+      <c r="AW3" s="117"/>
+      <c r="AX3" s="117"/>
+      <c r="AY3" s="117"/>
+      <c r="AZ3" s="117">
         <v>12</v>
       </c>
-      <c r="BA3" s="116"/>
-      <c r="BB3" s="116"/>
-      <c r="BC3" s="116"/>
-      <c r="BD3" s="116">
+      <c r="BA3" s="117"/>
+      <c r="BB3" s="117"/>
+      <c r="BC3" s="117"/>
+      <c r="BD3" s="117">
         <v>13</v>
       </c>
-      <c r="BE3" s="116"/>
-      <c r="BF3" s="116"/>
-      <c r="BG3" s="116"/>
-      <c r="BH3" s="116">
+      <c r="BE3" s="117"/>
+      <c r="BF3" s="117"/>
+      <c r="BG3" s="117"/>
+      <c r="BH3" s="117">
         <v>14</v>
       </c>
-      <c r="BI3" s="116"/>
-      <c r="BJ3" s="116"/>
-      <c r="BK3" s="116"/>
-      <c r="BL3" s="116">
+      <c r="BI3" s="117"/>
+      <c r="BJ3" s="117"/>
+      <c r="BK3" s="117"/>
+      <c r="BL3" s="117">
         <v>15</v>
       </c>
-      <c r="BM3" s="116"/>
-      <c r="BN3" s="116"/>
-      <c r="BO3" s="116"/>
-      <c r="BP3" s="116">
+      <c r="BM3" s="117"/>
+      <c r="BN3" s="117"/>
+      <c r="BO3" s="117"/>
+      <c r="BP3" s="117">
         <v>16</v>
       </c>
-      <c r="BQ3" s="116"/>
-      <c r="BR3" s="116"/>
-      <c r="BS3" s="116"/>
+      <c r="BQ3" s="117"/>
+      <c r="BR3" s="117"/>
+      <c r="BS3" s="117"/>
       <c r="BT3" s="15"/>
       <c r="BU3" s="15"/>
       <c r="BV3" s="15"/>
@@ -2687,74 +3349,74 @@
     </row>
     <row r="4" spans="1:78" ht="14.25" thickBot="1">
       <c r="C4" s="17"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="117"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="119"/>
-      <c r="T4" s="117"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="117"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="119"/>
-      <c r="AB4" s="117"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118"/>
-      <c r="AE4" s="119"/>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="118"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="117"/>
-      <c r="AK4" s="118"/>
-      <c r="AL4" s="118"/>
-      <c r="AM4" s="119"/>
-      <c r="AN4" s="117"/>
-      <c r="AO4" s="118"/>
-      <c r="AP4" s="118"/>
-      <c r="AQ4" s="119"/>
-      <c r="AR4" s="117"/>
-      <c r="AS4" s="118"/>
-      <c r="AT4" s="118"/>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="117"/>
-      <c r="AW4" s="118"/>
-      <c r="AX4" s="118"/>
-      <c r="AY4" s="119"/>
-      <c r="AZ4" s="117"/>
-      <c r="BA4" s="118"/>
-      <c r="BB4" s="118"/>
-      <c r="BC4" s="119"/>
-      <c r="BD4" s="117"/>
-      <c r="BE4" s="118"/>
-      <c r="BF4" s="118"/>
-      <c r="BG4" s="119"/>
-      <c r="BH4" s="117"/>
-      <c r="BI4" s="118"/>
-      <c r="BJ4" s="118"/>
-      <c r="BK4" s="119"/>
-      <c r="BL4" s="117"/>
-      <c r="BM4" s="118"/>
-      <c r="BN4" s="118"/>
-      <c r="BO4" s="119"/>
-      <c r="BP4" s="117"/>
-      <c r="BQ4" s="118"/>
-      <c r="BR4" s="118"/>
-      <c r="BS4" s="119"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="133"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="120"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="119"/>
+      <c r="O4" s="120"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="119"/>
+      <c r="V4" s="119"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="119"/>
+      <c r="AA4" s="120"/>
+      <c r="AB4" s="118"/>
+      <c r="AC4" s="119"/>
+      <c r="AD4" s="119"/>
+      <c r="AE4" s="120"/>
+      <c r="AF4" s="118"/>
+      <c r="AG4" s="119"/>
+      <c r="AH4" s="119"/>
+      <c r="AI4" s="120"/>
+      <c r="AJ4" s="118"/>
+      <c r="AK4" s="119"/>
+      <c r="AL4" s="119"/>
+      <c r="AM4" s="120"/>
+      <c r="AN4" s="118"/>
+      <c r="AO4" s="119"/>
+      <c r="AP4" s="119"/>
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="118"/>
+      <c r="AS4" s="119"/>
+      <c r="AT4" s="119"/>
+      <c r="AU4" s="120"/>
+      <c r="AV4" s="118"/>
+      <c r="AW4" s="119"/>
+      <c r="AX4" s="119"/>
+      <c r="AY4" s="120"/>
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="119"/>
+      <c r="BC4" s="120"/>
+      <c r="BD4" s="118"/>
+      <c r="BE4" s="119"/>
+      <c r="BF4" s="119"/>
+      <c r="BG4" s="120"/>
+      <c r="BH4" s="118"/>
+      <c r="BI4" s="119"/>
+      <c r="BJ4" s="119"/>
+      <c r="BK4" s="120"/>
+      <c r="BL4" s="118"/>
+      <c r="BM4" s="119"/>
+      <c r="BN4" s="119"/>
+      <c r="BO4" s="120"/>
+      <c r="BP4" s="118"/>
+      <c r="BQ4" s="119"/>
+      <c r="BR4" s="119"/>
+      <c r="BS4" s="120"/>
       <c r="BT4" s="18"/>
       <c r="BU4" s="18"/>
       <c r="BV4" s="18"/>
@@ -2882,70 +3544,70 @@
       <c r="E6" s="91"/>
       <c r="F6" s="92"/>
       <c r="G6" s="93"/>
-      <c r="H6" s="123"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="125"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="123"/>
-      <c r="Y6" s="124"/>
-      <c r="Z6" s="124"/>
-      <c r="AA6" s="125"/>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="123"/>
-      <c r="AG6" s="124"/>
-      <c r="AH6" s="124"/>
-      <c r="AI6" s="125"/>
-      <c r="AJ6" s="120"/>
-      <c r="AK6" s="121"/>
-      <c r="AL6" s="121"/>
-      <c r="AM6" s="122"/>
-      <c r="AN6" s="123"/>
-      <c r="AO6" s="124"/>
-      <c r="AP6" s="124"/>
-      <c r="AQ6" s="125"/>
-      <c r="AR6" s="120"/>
-      <c r="AS6" s="121"/>
-      <c r="AT6" s="121"/>
-      <c r="AU6" s="122"/>
-      <c r="AV6" s="123"/>
-      <c r="AW6" s="124"/>
-      <c r="AX6" s="124"/>
-      <c r="AY6" s="125"/>
-      <c r="AZ6" s="120"/>
-      <c r="BA6" s="121"/>
-      <c r="BB6" s="121"/>
-      <c r="BC6" s="122"/>
-      <c r="BD6" s="123"/>
-      <c r="BE6" s="124"/>
-      <c r="BF6" s="124"/>
-      <c r="BG6" s="125"/>
-      <c r="BH6" s="120"/>
-      <c r="BI6" s="121"/>
-      <c r="BJ6" s="121"/>
-      <c r="BK6" s="122"/>
-      <c r="BL6" s="123"/>
-      <c r="BM6" s="124"/>
-      <c r="BN6" s="124"/>
-      <c r="BO6" s="125"/>
-      <c r="BP6" s="120"/>
-      <c r="BQ6" s="121"/>
-      <c r="BR6" s="121"/>
-      <c r="BS6" s="122"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="121"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="123"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="125"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="121"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="123"/>
+      <c r="AB6" s="124"/>
+      <c r="AC6" s="125"/>
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="122"/>
+      <c r="AH6" s="122"/>
+      <c r="AI6" s="123"/>
+      <c r="AJ6" s="124"/>
+      <c r="AK6" s="125"/>
+      <c r="AL6" s="125"/>
+      <c r="AM6" s="126"/>
+      <c r="AN6" s="121"/>
+      <c r="AO6" s="122"/>
+      <c r="AP6" s="122"/>
+      <c r="AQ6" s="123"/>
+      <c r="AR6" s="124"/>
+      <c r="AS6" s="125"/>
+      <c r="AT6" s="125"/>
+      <c r="AU6" s="126"/>
+      <c r="AV6" s="121"/>
+      <c r="AW6" s="122"/>
+      <c r="AX6" s="122"/>
+      <c r="AY6" s="123"/>
+      <c r="AZ6" s="124"/>
+      <c r="BA6" s="125"/>
+      <c r="BB6" s="125"/>
+      <c r="BC6" s="126"/>
+      <c r="BD6" s="121"/>
+      <c r="BE6" s="122"/>
+      <c r="BF6" s="122"/>
+      <c r="BG6" s="123"/>
+      <c r="BH6" s="124"/>
+      <c r="BI6" s="125"/>
+      <c r="BJ6" s="125"/>
+      <c r="BK6" s="126"/>
+      <c r="BL6" s="121"/>
+      <c r="BM6" s="122"/>
+      <c r="BN6" s="122"/>
+      <c r="BO6" s="123"/>
+      <c r="BP6" s="124"/>
+      <c r="BQ6" s="125"/>
+      <c r="BR6" s="125"/>
+      <c r="BS6" s="126"/>
       <c r="BT6" s="31"/>
       <c r="BU6" s="31"/>
       <c r="BV6" s="31"/>
@@ -3034,10 +3696,10 @@
     </row>
     <row r="8" spans="1:78" ht="21.75" customHeight="1" thickBot="1">
       <c r="C8" s="37"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="131"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="132"/>
       <c r="H8" s="38"/>
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
@@ -16038,11 +16700,11 @@
     </row>
     <row r="100" spans="2:78" ht="20.25" customHeight="1" thickBot="1">
       <c r="B100" s="52"/>
-      <c r="C100" s="126"/>
-      <c r="D100" s="127"/>
-      <c r="E100" s="127"/>
-      <c r="F100" s="127"/>
-      <c r="G100" s="128"/>
+      <c r="C100" s="127"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="129"/>
       <c r="H100" s="58"/>
       <c r="I100" s="84"/>
       <c r="J100" s="84"/>
@@ -16362,31 +17024,22 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C2:X2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="AR3:AU3"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="AV3:AY3"/>
-    <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="BD3:BG3"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="AN3:AQ3"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="BD4:BG4"/>
-    <mergeCell ref="AR4:AU4"/>
-    <mergeCell ref="AV4:AY4"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AA4"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="BP3:BS3"/>
+    <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="BP6:BS6"/>
+    <mergeCell ref="BH3:BK3"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="BH6:BK6"/>
+    <mergeCell ref="BL3:BO3"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BL6:BO6"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D4:G4"/>
     <mergeCell ref="AV6:AY6"/>
     <mergeCell ref="AZ6:BC6"/>
     <mergeCell ref="BD6:BG6"/>
@@ -16398,22 +17051,31 @@
     <mergeCell ref="AB6:AE6"/>
     <mergeCell ref="AF6:AI6"/>
     <mergeCell ref="AJ6:AM6"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="BP3:BS3"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="BP6:BS6"/>
-    <mergeCell ref="BH3:BK3"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="BH6:BK6"/>
-    <mergeCell ref="BL3:BO3"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BL6:BO6"/>
+    <mergeCell ref="BD4:BG4"/>
+    <mergeCell ref="AR4:AU4"/>
+    <mergeCell ref="AV4:AY4"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AV3:AY3"/>
+    <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="BD3:BG3"/>
+    <mergeCell ref="X3:AA3"/>
+    <mergeCell ref="AB3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="AN3:AQ3"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="C2:X2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="AR3:AU3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16421,7 +17083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AR19"/>
@@ -17104,7 +17766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:DR7"/>
